--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T17:25:07+00:00</t>
+    <t>2024-11-16T17:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Dosage.timing.periodUnit</t>
+  </si>
+  <si>
+    <t>Elément_posologie</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -478,6 +484,19 @@
       </c>
       <c r="E5" s="2"/>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-16T17:09:48+00:00</t>
+    <t>2024-11-17T10:04:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:04:37+00:00</t>
+    <t>2024-11-17T10:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:15:13+00:00</t>
+    <t>2024-11-17T10:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:25:25+00:00</t>
+    <t>2024-11-17T10:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -8,12 +8,14 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
+    <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:38:58+00:00</t>
+    <t>2024-11-17T16:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -93,13 +95,13 @@
     <t>Source</t>
   </si>
   <si>
-    <t>https://interopsante.org/pn13/xsd</t>
+    <t>https://interopsante.org/pn13/xsd/M_prescription_medicaments/Prescription/Element_prescr_medic/Element_posologie</t>
   </si>
   <si>
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/FrInpatientMedicationRequest</t>
+    <t>https://hl7.org/fhir/R4/dosage</t>
   </si>
   <si>
     <t>Display</t>
@@ -108,18 +110,18 @@
     <t>Relationship</t>
   </si>
   <si>
-    <t>https://interopsante.org/pn13/xsd/M_prescription_medicaments/Prescription/Element_prescr_medic/Element_posologie</t>
-  </si>
-  <si>
-    <t>https://hl7.org/fhir/R4/dosage</t>
+    <t>Elément_posologie</t>
+  </si>
+  <si>
+    <t>related-to</t>
+  </si>
+  <si>
+    <t>Dosage.timing</t>
   </si>
   <si>
     <t>Elément_posologie/Fréquence</t>
   </si>
   <si>
-    <t>related-to</t>
-  </si>
-  <si>
     <t>Dosage.timing.frequency</t>
   </si>
   <si>
@@ -129,10 +131,31 @@
     <t>Dosage.timing.periodUnit</t>
   </si>
   <si>
-    <t>Elément_posologie</t>
-  </si>
-  <si>
-    <t>Dosage.timing</t>
+    <t>Elément_posologie/Fréquence_structurée/Frq_échelle</t>
+  </si>
+  <si>
+    <t>equivalent</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.periodUnit</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_durée</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.period</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_multiplicité</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.frequency</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Fréquence_structurée/Frq_filtre/Frq_filtreVal_1_J</t>
+  </si>
+  <si>
+    <t>Dosage.timing.repeat.dayOfWeek</t>
   </si>
 </sst>
 </file>
@@ -429,58 +452,149 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
         <v>20</v>
       </c>
       <c r="C2" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>32</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
         <v>34</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -490,12 +604,172 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -10,12 +10,13 @@
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
     <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
+    <sheet name="Mapping Table 3" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -59,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T16:50:27+00:00</t>
+    <t>2024-11-18T17:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -156,6 +157,18 @@
   </si>
   <si>
     <t>Dosage.timing.repeat.dayOfWeek</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Quantité/Nombre</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.value</t>
+  </si>
+  <si>
+    <t>Elément_posologie/Quantité/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.unité</t>
   </si>
 </sst>
 </file>
@@ -709,6 +722,140 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -747,27 +894,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2"/>
     </row>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="52">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T17:53:13+00:00</t>
+    <t>2024-11-20T16:15:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Elément_posologie/Quantité/Unité</t>
+  </si>
+  <si>
+    <t>Dosage.doseAndRate.doseQuantity.code</t>
   </si>
   <si>
     <t>Dosage.doseAndRate.doseQuantity.unité</t>
@@ -856,7 +859,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -911,12 +914,25 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>50</v>
       </c>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
+++ b/MappingPosologie/ig/PN13-FHIR-prescmed-dosageinstruction-conceptmap.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T16:15:47+00:00</t>
+    <t>2024-12-26T10:27:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
